--- a/Excel-XLSX/UN-TCI.xlsx
+++ b/Excel-XLSX/UN-TCI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>00sZ1L</t>
+    <t>2t9SF1</t>
   </si>
   <si>
     <t>2012</t>
@@ -120,7 +120,7 @@
     <t>21</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
   </si>
   <si>
     <t>2</t>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -574,7 +580,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -714,8 +720,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -782,8 +788,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
+      <c r="V3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -850,8 +856,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>32</v>
+      <c r="V4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -918,8 +924,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -986,8 +992,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
+      <c r="V6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1054,8 +1060,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>32</v>
+      <c r="V7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1122,8 +1128,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>32</v>
+      <c r="V8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1190,8 +1196,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>32</v>
+      <c r="V9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1258,8 +1264,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>32</v>
+      <c r="V10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1326,8 +1332,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>32</v>
+      <c r="V11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1395,6 +1401,74 @@
         <v>34</v>
       </c>
       <c r="V12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-TCI.xlsx
+++ b/Excel-XLSX/UN-TCI.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>2t9SF1</t>
+    <t>DHa51Y</t>
   </si>
   <si>
     <t>2012</t>
@@ -720,8 +720,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -788,8 +788,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -856,8 +856,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -924,8 +924,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -992,8 +992,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1060,8 +1060,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1128,8 +1128,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1196,8 +1196,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1264,8 +1264,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1332,8 +1332,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">

--- a/Excel-XLSX/UN-TCI.xlsx
+++ b/Excel-XLSX/UN-TCI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -580,7 +586,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1469,6 +1475,74 @@
         <v>34</v>
       </c>
       <c r="V13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V14" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-TCI.xlsx
+++ b/Excel-XLSX/UN-TCI.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>DHa51Y</t>
+    <t>qW50z4</t>
   </si>
   <si>
     <t>2012</t>
@@ -1519,7 +1519,7 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>32</v>
